--- a/Yearly Report Performer/Data/Temp/Yearly-Report-2019-RO874232.xlsx
+++ b/Yearly Report Performer/Data/Temp/Yearly-Report-2019-RO874232.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thach\Documents\UiPath\Yearly Report Performer\Data\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thach\Documents\UiPath\Generate Yearly Report\Yearly Report Performer\Data\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96308998-89E8-475A-B406-D2A87B98D653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61729DC5-E38B-413C-8254-CF9237A9452B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="11260" xr2:uid="{C5BEAEBD-9406-48BC-BA08-0EF7213221FD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="9">
   <si>
     <t>Various paper supplies</t>
   </si>
@@ -33,13 +33,7 @@
     <t>CAD</t>
   </si>
   <si>
-    <t>IT Support</t>
-  </si>
-  <si>
     <t>RON</t>
-  </si>
-  <si>
-    <t>Beverages and Catering</t>
   </si>
   <si>
     <t>Professional Services</t>
@@ -55,6 +49,9 @@
   </si>
   <si>
     <t>Waste management services</t>
+  </si>
+  <si>
+    <t>IT Support</t>
   </si>
 </sst>
 </file>
@@ -407,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B151BA-CC79-46BD-888C-CE9AD95DB166}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,209 +412,393 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>760472</v>
+        <v>732667</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1">
-        <v>42760</v>
+        <v>78920</v>
       </c>
       <c r="D1">
-        <v>162050</v>
+        <v>15784</v>
       </c>
       <c r="E1">
-        <v>32410</v>
-      </c>
-      <c r="F1">
-        <v>194460</v>
-      </c>
-      <c r="G1" t="s">
+        <v>94704</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
+      </c>
+      <c r="G1" s="1">
+        <v>42763</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>603974</v>
+        <v>187473</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>152511</v>
+      </c>
+      <c r="D2">
+        <v>30502.2</v>
+      </c>
+      <c r="E2">
+        <v>183013</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
-        <v>42851</v>
-      </c>
-      <c r="D2">
-        <v>233638</v>
-      </c>
-      <c r="E2">
-        <v>46727.6</v>
-      </c>
-      <c r="F2">
-        <v>280366</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
+      <c r="G2" s="1">
+        <v>42784</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>940662</v>
+        <v>881109</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
-        <v>42877</v>
+        <v>56528</v>
       </c>
       <c r="D3">
-        <v>94657</v>
+        <v>11305.6</v>
       </c>
       <c r="E3">
-        <v>18931.400000000001</v>
-      </c>
-      <c r="F3">
-        <v>113588</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
+        <v>67833.600000000006</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1">
+        <v>42799</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>956618</v>
+        <v>294684</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
-        <v>42923</v>
+        <v>220498</v>
       </c>
       <c r="D4">
-        <v>270704</v>
+        <v>44099.6</v>
       </c>
       <c r="E4">
-        <v>54140.800000000003</v>
-      </c>
-      <c r="F4">
-        <v>324845</v>
-      </c>
-      <c r="G4" t="s">
+        <v>264598</v>
+      </c>
+      <c r="F4" t="s">
         <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>42804</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>508817</v>
+        <v>416953</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>42928</v>
+        <v>52736</v>
       </c>
       <c r="D5">
-        <v>111239</v>
+        <v>10547.2</v>
       </c>
       <c r="E5">
-        <v>22247.8</v>
-      </c>
-      <c r="F5">
-        <v>133487</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3</v>
+        <v>63283.199999999997</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>42821</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>432782</v>
+        <v>847258</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>43053</v>
+        <v>122558</v>
       </c>
       <c r="D6">
-        <v>68468</v>
+        <v>24511.599999999999</v>
       </c>
       <c r="E6">
-        <v>13693.6</v>
-      </c>
-      <c r="F6">
-        <v>82161.600000000006</v>
-      </c>
-      <c r="G6" t="s">
-        <v>7</v>
+        <v>147070</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>42842</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>451554</v>
+        <v>284892</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>43059</v>
+        <v>26011</v>
       </c>
       <c r="D7">
-        <v>106362</v>
+        <v>5202.2</v>
       </c>
       <c r="E7">
-        <v>21272.400000000001</v>
-      </c>
-      <c r="F7">
-        <v>127634</v>
-      </c>
-      <c r="G7" t="s">
-        <v>8</v>
+        <v>31213.200000000001</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>42840</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>564520</v>
+        <v>422319</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>43087</v>
+        <v>238387</v>
       </c>
       <c r="D8">
-        <v>206928</v>
+        <v>47677.4</v>
       </c>
       <c r="E8">
-        <v>41385.599999999999</v>
-      </c>
-      <c r="F8">
-        <v>248314</v>
-      </c>
-      <c r="G8" t="s">
-        <v>3</v>
+        <v>286064</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1">
+        <v>42869</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>980558</v>
+        <v>329951</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>43092</v>
+        <v>179886</v>
       </c>
       <c r="D9">
-        <v>164160</v>
+        <v>35977.199999999997</v>
       </c>
       <c r="E9">
-        <v>32832</v>
-      </c>
-      <c r="F9">
-        <v>196992</v>
-      </c>
-      <c r="G9" t="s">
+        <v>215863</v>
+      </c>
+      <c r="F9" t="s">
         <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>42856</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>491979</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>278801</v>
+      </c>
+      <c r="D10">
+        <v>55760.2</v>
+      </c>
+      <c r="E10">
+        <v>334561</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1">
+        <v>42879</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>468490</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>50368</v>
+      </c>
+      <c r="D11">
+        <v>10073.6</v>
+      </c>
+      <c r="E11">
+        <v>60441.599999999999</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>42907</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>104998</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>163232</v>
+      </c>
+      <c r="D12">
+        <v>32646.400000000001</v>
+      </c>
+      <c r="E12">
+        <v>195878</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>42896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>497912</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>259672</v>
+      </c>
+      <c r="D13">
+        <v>51934.400000000001</v>
+      </c>
+      <c r="E13">
+        <v>311606</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="1">
+        <v>42966</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>757914</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>123066</v>
+      </c>
+      <c r="D14">
+        <v>24613.200000000001</v>
+      </c>
+      <c r="E14">
+        <v>147679</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>42961</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>359288</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>21495</v>
+      </c>
+      <c r="D15">
+        <v>4299</v>
+      </c>
+      <c r="E15">
+        <v>25794</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>42987</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>993626</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>146984</v>
+      </c>
+      <c r="D16">
+        <v>29396.799999999999</v>
+      </c>
+      <c r="E16">
+        <v>176381</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>43001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>605646</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>150066</v>
+      </c>
+      <c r="D17">
+        <v>30013.200000000001</v>
+      </c>
+      <c r="E17">
+        <v>180079</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>42998</v>
       </c>
     </row>
   </sheetData>
